--- a/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
+++ b/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/32 Processing Tables with a Two-Row Header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A35D8C3-E53A-4795-904F-F0E5153CEA4D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39972B1-E665-47E8-B9D0-E99DBA2853E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Desired Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,10 +206,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,7 +234,40 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -235,16 +281,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2284EC06-60DA-441C-ADAC-AF7255FDD914}" name="Table2" displayName="Table2" ref="A1:G3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2284EC06-60DA-441C-ADAC-AF7255FDD914}" name="Table2" displayName="Table2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:G3" xr:uid="{2284EC06-60DA-441C-ADAC-AF7255FDD914}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CC700380-65CB-4399-8488-FACDCB501924}" name="General.Project"/>
-    <tableColumn id="2" xr3:uid="{27475C03-8CA1-49E7-B9BC-038985E0E1B4}" name="Contractor A.Name"/>
-    <tableColumn id="3" xr3:uid="{38D94989-83EB-4089-8253-BF113EFA700E}" name="Contractor A.Email"/>
-    <tableColumn id="4" xr3:uid="{30A11A77-6D0E-4A50-AC35-9F815CB5A164}" name="Contractor B.Name"/>
-    <tableColumn id="5" xr3:uid="{C7BDB5BC-993A-4507-87B2-A960BB571A40}" name="Contractor B.Email"/>
-    <tableColumn id="6" xr3:uid="{EC8C2AD5-BEFA-419B-883C-6687890665B1}" name="Contractor C.Name"/>
-    <tableColumn id="7" xr3:uid="{D86725C5-B750-4F2A-8221-C5242D716123}" name="Contractor C.Email"/>
+    <tableColumn id="2" xr3:uid="{27475C03-8CA1-49E7-B9BC-038985E0E1B4}" name="Contractor A.Name" dataDxfId="5" dataCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{38D94989-83EB-4089-8253-BF113EFA700E}" name="Contractor A.Email" dataDxfId="4" dataCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{30A11A77-6D0E-4A50-AC35-9F815CB5A164}" name="Contractor B.Name" dataDxfId="3" dataCellStyle="40% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C7BDB5BC-993A-4507-87B2-A960BB571A40}" name="Contractor B.Email" dataDxfId="2" dataCellStyle="40% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{EC8C2AD5-BEFA-419B-883C-6687890665B1}" name="Contractor C.Name" dataDxfId="1" dataCellStyle="40% - Accent5"/>
+    <tableColumn id="7" xr3:uid="{D86725C5-B750-4F2A-8221-C5242D716123}" name="Contractor C.Email" dataDxfId="0" dataCellStyle="40% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,13 +561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -534,18 +578,18 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -631,9 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A248B9A-E7BE-4A0C-BE87-431DA13AB607}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,25 +689,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -673,22 +715,22 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -696,22 +738,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
+++ b/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/32 Processing Tables with a Two-Row Header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39972B1-E665-47E8-B9D0-E99DBA2853E9}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F81494E-2884-4982-BE5E-6419D9B1ED24}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>General</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Contractor C.Email</t>
+  </si>
+  <si>
+    <t>Contractor C</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,7 +592,7 @@
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
+++ b/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/32 Processing Tables with a Two-Row Header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F81494E-2884-4982-BE5E-6419D9B1ED24}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FB401F-9538-4274-A16E-20D916A93F67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,6 +577,7 @@
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
+++ b/32 Processing Tables with a Two-Row Header/Processing Tables with a Two-Row Header Sample Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/32 Processing Tables with a Two-Row Header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FB401F-9538-4274-A16E-20D916A93F67}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB797BAE-D422-4793-AF1D-937B26E1BD3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>General</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Contractor C</t>
+  </si>
+  <si>
+    <t>Gusella Starbucks</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -681,7 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A248B9A-E7BE-4A0C-BE87-431DA13AB607}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
